--- a/inputs/primary-results/raw/PSC Results.xlsx
+++ b/inputs/primary-results/raw/PSC Results.xlsx
@@ -24,10 +24,10 @@
     <x:t>State of Montana</x:t>
   </x:si>
   <x:si>
-    <x:t>Precincts 193 of 307 Reporting (Precincts Partially Reported: 100/307)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Downloaded at 6/8/2022 9:59:04 AM</x:t>
+    <x:t>Precincts 307 of 307 Reporting (Precincts Partially Reported: 0/307)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downloaded at 7/19/2022 9:10:31 AM</x:t>
   </x:si>
   <x:si>
     <x:t>PUBLIC SERVICE COMMISSIONER DISTRICT 1</x:t>
@@ -518,7 +518,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.440625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="19.830625" style="0" customWidth="1"/>
@@ -574,10 +574,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>7750</x:v>
+        <x:v>7761</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>3913</x:v>
+        <x:v>3922</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -607,7 +607,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>604</x:v>
@@ -618,10 +618,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>2107</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -632,7 +632,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -640,10 +640,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -651,10 +651,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -728,10 +728,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -739,10 +739,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -761,7 +761,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>293</x:v>
@@ -772,10 +772,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -805,10 +805,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>19289</x:v>
+        <x:v>20585</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>10057</x:v>
+        <x:v>10472</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -831,7 +831,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.540625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.930625" style="0" customWidth="1"/>
@@ -884,16 +884,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3961</x:v>
+        <x:v>4000</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>7755</x:v>
+        <x:v>7869</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>6626</x:v>
+        <x:v>6753</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>1820</x:v>
+        <x:v>1848</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -901,16 +901,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1330</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>1971</x:v>
+        <x:v>1990</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -918,16 +918,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3446</x:v>
+        <x:v>4588</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1320</x:v>
+        <x:v>1896</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>2025</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -952,16 +952,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>9243</x:v>
+        <x:v>10442</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>10440</x:v>
+        <x:v>11146</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>10497</x:v>
+        <x:v>11233</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>2931</x:v>
+        <x:v>3143</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -984,7 +984,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.590625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.380625" style="0" customWidth="1"/>
@@ -1029,10 +1029,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2071</x:v>
+        <x:v>2088</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2786</x:v>
+        <x:v>2807</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1040,10 +1040,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>925</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -1051,10 +1051,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3382</x:v>
+        <x:v>4426</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3678</x:v>
+        <x:v>4741</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1073,10 +1073,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>6519</x:v>
+        <x:v>7599</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>7722</x:v>
+        <x:v>8820</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
